--- a/2ИСИП-421_ВыставилТемыПроверил/2ИСИП-421.xlsx
+++ b/2ИСИП-421_ВыставилТемыПроверил/2ИСИП-421.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Git_Hub_V2\KipFin_Lab_2023_v0_Git0\2ИСИП-421\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Git_Hub_V2\KipFin_Lab_2023_v0_Git0\2ИСИП-421_ВыставилТемыПроверил\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15CF12C-D073-4F26-8BB0-BEC4049D1463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5C8E03-6866-4E92-8574-EC28F20ACFB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -574,10 +574,10 @@
   <dimension ref="A1:AA32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S4" sqref="S4:S31"/>
+      <selection pane="bottomRight" activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
